--- a/sputnik/personal/ee/246ee.xlsx
+++ b/sputnik/personal/ee/246ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,16 +37,34 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +87,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,39 +119,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,31 +136,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -245,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,10 +235,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +269,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -488,17 +444,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -506,325 +462,205 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43246</v>
+        <v>43386</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1218</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>1329</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>662</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>696</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43366</v>
+        <v>43712</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1238</v>
+        <v>1518</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>20</v>
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <v>189</v>
       </c>
       <c r="E4" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>848.61</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>877.77</v>
+      </c>
+      <c r="H4" s="8">
+        <v>878.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29.160000000000004</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43386</v>
+        <v>43734</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>1329</v>
+        <v>1651</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>409.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*E6</f>
+        <v>597.17000000000007</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>772.13000000000011</v>
+      </c>
+      <c r="H6" s="8">
+        <v>772.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>79.900000000000006</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43712</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1518</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="E8" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>848.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+        <f>D7*E7</f>
+        <v>174.96</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G2:G7)</f>
+        <v>1649.9</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H2:H7)</f>
+        <v>1650.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <f>SUM(H8,-G8)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>708</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>29.160000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43734</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1651</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="E10" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>597.17000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>780</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>174.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -834,12 +670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -848,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/246ee.xlsx
+++ b/sputnik/personal/ee/246ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -60,11 +60,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,6 +270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -444,17 +446,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -469,7 +471,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.5" customHeight="1">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -495,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43386</v>
       </c>
@@ -511,7 +513,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -527,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43712</v>
       </c>
@@ -556,7 +558,7 @@
         <v>878.77</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -578,7 +580,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43734</v>
       </c>
@@ -607,7 +609,7 @@
         <v>772.13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -629,37 +631,88 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1819</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>168</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>754.32</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>1082.3700000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1082.3699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>915</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>328.05</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8">
-        <f>SUM(G2:G7)</f>
-        <v>1649.9</v>
-      </c>
-      <c r="H8" s="8">
-        <f>SUM(H2:H7)</f>
-        <v>1650.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="G10" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>2732.2700000000004</v>
+      </c>
+      <c r="H10" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>2733.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <f>SUM(H8,-G8)</f>
-        <v>1</v>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
+        <v>0.99999999999954525</v>
       </c>
     </row>
   </sheetData>
@@ -670,12 +723,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -684,12 +737,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/246ee.xlsx
+++ b/sputnik/personal/ee/246ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,35 +683,86 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="4">
+        <v>44007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <v>182</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>817.18000000000006</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1050.46</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1050.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>233.28000000000003</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>2732.2700000000004</v>
-      </c>
-      <c r="H10" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>2733.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="G12" s="8">
+        <f>SUM(G2:G11)</f>
+        <v>3782.7300000000005</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H11)</f>
+        <v>3783.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
         <v>0.99999999999954525</v>
       </c>
     </row>

--- a/sputnik/personal/ee/246ee.xlsx
+++ b/sputnik/personal/ee/246ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,7 +598,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>597.17000000000007</v>
       </c>
       <c r="G6" s="8">
@@ -625,7 +625,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>174.96</v>
       </c>
       <c r="G7" s="8"/>
@@ -642,14 +642,14 @@
         <v>1819</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
         <v>168</v>
       </c>
       <c r="E8" s="6">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>754.32</v>
       </c>
       <c r="G8" s="8">
@@ -669,14 +669,14 @@
         <v>915</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="E9" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>328.05</v>
       </c>
       <c r="G9" s="8"/>
@@ -693,14 +693,14 @@
         <v>2001</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
         <v>182</v>
       </c>
       <c r="E10" s="6">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>817.18000000000006</v>
       </c>
       <c r="G10" s="8">
@@ -720,50 +720,101 @@
         <v>1011</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="E11" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>233.28000000000003</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="4">
+        <v>44111</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2172</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
+        <v>171</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>805.41</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>922.70999999999992</v>
+      </c>
+      <c r="H12" s="8">
+        <v>922.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1057</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="6"/>
+        <v>117.3</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8">
-        <f>SUM(G2:G11)</f>
-        <v>3782.7300000000005</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(H2:H11)</f>
-        <v>3783.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="G14" s="8">
+        <f>SUM(G2:G13)</f>
+        <v>4705.4400000000005</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(H2:H13)</f>
+        <v>4706.4400000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
-        <v>0.99999999999954525</v>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <f>SUM(H14,-G14)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/246ee.xlsx
+++ b/sputnik/personal/ee/246ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +171,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,31 +496,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44111</v>
+        <v>44354</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>2172</v>
+        <v>2358</v>
       </c>
       <c r="D2" s="10">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F7" si="1">D2*E2</f>
-        <v>805.41</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>876.06</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>922.70999999999992</v>
+        <v>1069.8599999999999</v>
       </c>
       <c r="H2" s="8">
-        <v>922.71</v>
+        <v>1069.8599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,49 +529,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>1057</v>
+        <v>1133</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>117.3</v>
+        <v>193.79999999999998</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44007</v>
+      <c r="A4" s="17">
+        <v>44111</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>2001</v>
+        <v>2172</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="1"/>
-        <v>817.18000000000006</v>
+        <f t="shared" ref="F4:F9" si="3">D4*E4</f>
+        <v>805.41</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1050.46</v>
+        <v>922.70999999999992</v>
       </c>
       <c r="H4" s="8">
-        <v>1050.46</v>
+        <v>922.71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -573,49 +580,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>1011</v>
+        <v>1057</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>233.28000000000003</v>
+        <f t="shared" si="3"/>
+        <v>117.3</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43969</v>
+        <v>44007</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>1819</v>
+        <v>2001</v>
       </c>
       <c r="D6" s="10">
-        <f>SUM(C6,-C8)</f>
-        <v>168</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>182</v>
       </c>
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>754.32</v>
+        <f t="shared" si="3"/>
+        <v>817.18000000000006</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1082.3700000000001</v>
+        <v>1050.46</v>
       </c>
       <c r="H6" s="8">
-        <v>1082.3699999999999</v>
+        <v>1050.46</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -624,37 +631,50 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>915</v>
+        <v>1011</v>
       </c>
       <c r="D7" s="10">
-        <f>SUM(C7,-C9)</f>
-        <v>135</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>328.05</v>
+        <f t="shared" si="3"/>
+        <v>233.28000000000003</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43734</v>
+        <v>43969</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>1651</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+        <v>1819</v>
+      </c>
+      <c r="D8" s="10">
+        <f>SUM(C8,-C10)</f>
+        <v>168</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="3"/>
+        <v>754.32</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>1082.3700000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1082.3699999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -662,52 +682,104 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
+        <v>915</v>
+      </c>
+      <c r="D9" s="10">
+        <f>SUM(C9,-C11)</f>
+        <v>135</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
+        <v>328.05</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43734</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1651</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
         <v>780</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/246ee.xlsx
+++ b/sputnik/personal/ee/246ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,31 +496,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44354</v>
+        <v>44377</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>2358</v>
+        <v>2488</v>
       </c>
       <c r="D2" s="10">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>876.06</v>
+        <v>612.29999999999995</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1069.8599999999999</v>
+        <v>729.59999999999991</v>
       </c>
       <c r="H2" s="8">
-        <v>1069.8599999999999</v>
+        <v>729.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -529,49 +529,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>1133</v>
+        <v>1179</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>193.79999999999998</v>
+        <v>117.3</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44111</v>
+        <v>44354</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>2172</v>
+        <v>2358</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" si="3">D4*E4</f>
-        <v>805.41</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>876.06</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>922.70999999999992</v>
+        <v>1069.8599999999999</v>
       </c>
       <c r="H4" s="8">
-        <v>922.71</v>
+        <v>1069.8599999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,49 +580,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>1057</v>
+        <v>1133</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>117.3</v>
+        <v>193.79999999999998</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44007</v>
+      <c r="A6" s="17">
+        <v>44111</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>2001</v>
+        <v>2172</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="3"/>
-        <v>817.18000000000006</v>
+        <f t="shared" ref="F6:F11" si="5">D6*E6</f>
+        <v>805.41</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1050.46</v>
+        <v>922.70999999999992</v>
       </c>
       <c r="H6" s="8">
-        <v>1050.46</v>
+        <v>922.71</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -631,49 +631,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>1011</v>
+        <v>1057</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>233.28000000000003</v>
+        <f t="shared" si="5"/>
+        <v>117.3</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43969</v>
+        <v>44007</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>1819</v>
+        <v>2001</v>
       </c>
       <c r="D8" s="10">
-        <f>SUM(C8,-C10)</f>
-        <v>168</v>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>182</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="3"/>
-        <v>754.32</v>
+        <f t="shared" si="5"/>
+        <v>817.18000000000006</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1082.3700000000001</v>
+        <v>1050.46</v>
       </c>
       <c r="H8" s="8">
-        <v>1082.3699999999999</v>
+        <v>1050.46</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -682,37 +682,50 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>915</v>
+        <v>1011</v>
       </c>
       <c r="D9" s="10">
-        <f>SUM(C9,-C11)</f>
-        <v>135</v>
+        <f t="shared" si="6"/>
+        <v>96</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>328.05</v>
+        <f t="shared" si="5"/>
+        <v>233.28000000000003</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43734</v>
+        <v>43969</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>1651</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+        <v>1819</v>
+      </c>
+      <c r="D10" s="10">
+        <f>SUM(C10,-C12)</f>
+        <v>168</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="5"/>
+        <v>754.32</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1082.3700000000001</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1082.3699999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -720,51 +733,82 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
+        <v>915</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUM(C11,-C13)</f>
+        <v>135</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="5"/>
+        <v>328.05</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43734</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1651</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
         <v>780</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
+      <c r="C14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="7"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -781,6 +825,26 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/ee/246ee.xlsx
+++ b/sputnik/personal/ee/246ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,31 +496,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44377</v>
+        <v>44461</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>2488</v>
+        <v>2656</v>
       </c>
       <c r="D2" s="10">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>612.29999999999995</v>
+        <v>833.28</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>729.59999999999991</v>
+        <v>868.12</v>
       </c>
       <c r="H2" s="8">
-        <v>729.6</v>
+        <v>868.12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -529,49 +529,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>1179</v>
+        <v>1192</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>117.3</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44354</v>
+        <v>44377</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>2358</v>
+        <v>2488</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>876.06</v>
+        <v>612.29999999999995</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1069.8599999999999</v>
+        <v>729.59999999999991</v>
       </c>
       <c r="H4" s="8">
-        <v>1069.8599999999999</v>
+        <v>729.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,49 +580,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>1133</v>
+        <v>1179</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>193.79999999999998</v>
+        <v>117.3</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44111</v>
+        <v>44354</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>2172</v>
+        <v>2358</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F11" si="5">D6*E6</f>
-        <v>805.41</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>876.06</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>922.70999999999992</v>
+        <v>1069.8599999999999</v>
       </c>
       <c r="H6" s="8">
-        <v>922.71</v>
+        <v>1069.8599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -631,49 +631,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>1057</v>
+        <v>1133</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>117.3</v>
+        <v>193.79999999999998</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44007</v>
+      <c r="A8" s="17">
+        <v>44111</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>2001</v>
+        <v>2172</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="5"/>
-        <v>817.18000000000006</v>
+        <f t="shared" ref="F8:F13" si="7">D8*E8</f>
+        <v>805.41</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1050.46</v>
+        <v>922.70999999999992</v>
       </c>
       <c r="H8" s="8">
-        <v>1050.46</v>
+        <v>922.71</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -682,49 +682,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>1011</v>
+        <v>1057</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="5"/>
-        <v>233.28000000000003</v>
+        <f t="shared" si="7"/>
+        <v>117.3</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43969</v>
+        <v>44007</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>1819</v>
+        <v>2001</v>
       </c>
       <c r="D10" s="10">
-        <f>SUM(C10,-C12)</f>
-        <v>168</v>
+        <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
+        <v>182</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="5"/>
-        <v>754.32</v>
+        <f t="shared" si="7"/>
+        <v>817.18000000000006</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1082.3700000000001</v>
+        <v>1050.46</v>
       </c>
       <c r="H10" s="8">
-        <v>1082.3699999999999</v>
+        <v>1050.46</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -733,37 +733,50 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>915</v>
+        <v>1011</v>
       </c>
       <c r="D11" s="10">
-        <f>SUM(C11,-C13)</f>
-        <v>135</v>
+        <f t="shared" si="8"/>
+        <v>96</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="5"/>
-        <v>328.05</v>
+        <f t="shared" si="7"/>
+        <v>233.28000000000003</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43734</v>
+        <v>43969</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10">
-        <v>1651</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+        <v>1819</v>
+      </c>
+      <c r="D12" s="10">
+        <f>SUM(C12,-C14)</f>
+        <v>168</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="7"/>
+        <v>754.32</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>1082.3700000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1082.3699999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -771,64 +784,84 @@
         <v>9</v>
       </c>
       <c r="C13" s="10">
+        <v>915</v>
+      </c>
+      <c r="D13" s="10">
+        <f>SUM(C13,-C15)</f>
+        <v>135</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="7"/>
+        <v>328.05</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43734</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1651</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
         <v>780</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -845,6 +878,26 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/ee/246ee.xlsx
+++ b/sputnik/personal/ee/246ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,31 +496,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44461</v>
+        <v>44510</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>2656</v>
+        <v>2850</v>
       </c>
       <c r="D2" s="10">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>833.28</v>
+        <v>962.24</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>868.12</v>
+        <v>1015.84</v>
       </c>
       <c r="H2" s="8">
-        <v>868.12</v>
+        <v>1015.84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -529,49 +529,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>1192</v>
+        <v>1212</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>34.840000000000003</v>
+        <v>53.6</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44377</v>
+        <v>44461</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>2488</v>
+        <v>2656</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>612.29999999999995</v>
+        <v>833.28</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>729.59999999999991</v>
+        <v>868.12</v>
       </c>
       <c r="H4" s="8">
-        <v>729.6</v>
+        <v>868.12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,49 +580,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>1179</v>
+        <v>1192</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>117.3</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44354</v>
+        <v>44377</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>2358</v>
+        <v>2488</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>876.06</v>
+        <v>612.29999999999995</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1069.8599999999999</v>
+        <v>729.59999999999991</v>
       </c>
       <c r="H6" s="8">
-        <v>1069.8599999999999</v>
+        <v>729.6</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -631,49 +631,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>1133</v>
+        <v>1179</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>193.79999999999998</v>
+        <v>117.3</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>44111</v>
+        <v>44354</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>2172</v>
+        <v>2358</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F13" si="7">D8*E8</f>
-        <v>805.41</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>876.06</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>922.70999999999992</v>
+        <v>1069.8599999999999</v>
       </c>
       <c r="H8" s="8">
-        <v>922.71</v>
+        <v>1069.8599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -682,49 +682,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>1057</v>
+        <v>1133</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>117.3</v>
+        <v>193.79999999999998</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44007</v>
+      <c r="A10" s="17">
+        <v>44111</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>2001</v>
+        <v>2172</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E10" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="7"/>
-        <v>817.18000000000006</v>
+        <f t="shared" ref="F10:F15" si="9">D10*E10</f>
+        <v>805.41</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1050.46</v>
+        <v>922.70999999999992</v>
       </c>
       <c r="H10" s="8">
-        <v>1050.46</v>
+        <v>922.71</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -733,49 +733,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>1011</v>
+        <v>1057</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>233.28000000000003</v>
+        <f t="shared" si="9"/>
+        <v>117.3</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43969</v>
+        <v>44007</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10">
-        <v>1819</v>
+        <v>2001</v>
       </c>
       <c r="D12" s="10">
-        <f>SUM(C12,-C14)</f>
-        <v>168</v>
+        <f t="shared" ref="D12:D13" si="10">SUM(C12,-C14)</f>
+        <v>182</v>
       </c>
       <c r="E12" s="3">
         <v>4.49</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="7"/>
-        <v>754.32</v>
+        <f t="shared" si="9"/>
+        <v>817.18000000000006</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1082.3700000000001</v>
+        <v>1050.46</v>
       </c>
       <c r="H12" s="8">
-        <v>1082.3699999999999</v>
+        <v>1050.46</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -784,37 +784,50 @@
         <v>9</v>
       </c>
       <c r="C13" s="10">
-        <v>915</v>
+        <v>1011</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(C13,-C15)</f>
-        <v>135</v>
+        <f t="shared" si="10"/>
+        <v>96</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="7"/>
-        <v>328.05</v>
+        <f t="shared" si="9"/>
+        <v>233.28000000000003</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43734</v>
+        <v>43969</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10">
-        <v>1651</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+        <v>1819</v>
+      </c>
+      <c r="D14" s="10">
+        <f>SUM(C14,-C16)</f>
+        <v>168</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="9"/>
+        <v>754.32</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>1082.3700000000001</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1082.3699999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -822,66 +835,92 @@
         <v>9</v>
       </c>
       <c r="C15" s="10">
+        <v>915</v>
+      </c>
+      <c r="D15" s="10">
+        <f>SUM(C15,-C17)</f>
+        <v>135</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="9"/>
+        <v>328.05</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43734</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1651</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10">
         <v>780</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="8">
+        <f>SUM(G2:G17)</f>
+        <v>6738.96</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H2:H17)</f>
+        <v>6738.96</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -898,6 +937,26 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
